--- a/ASST 03_ Input.xlsx
+++ b/ASST 03_ Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UndergradCurriculum (Pre-fed)" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="246">
   <si>
     <t xml:space="preserve">Semester</t>
   </si>
@@ -196,373 +196,379 @@
     <t xml:space="preserve">CSE 4102</t>
   </si>
   <si>
+    <t xml:space="preserve">CSE 4111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECO 4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Saifuddin Md. Tareeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Suraiya Pervin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Haider Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Hafiz Md. Hasan Babu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Rezaul Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Shabbir Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Hasanuzzaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Mustafizur Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Chowdhury Farhan Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Mamun-or-Rashid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Upama Kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abu Ahmed Ferdaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Muhammad Asif Hossain Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mosarrat Jahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ismat Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sarker Tanveer Ahmed Rumee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasnain Heickal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Mosaddek Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Md. Samiullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Mahmudur Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Muhammad Ibrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Ashraful Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Abu Bin Hasan Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. S M Mostaka Al Mamun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3112 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3111 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3111 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2112 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2112 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4113 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4113 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE 1113 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE 1113 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE 1113 Section 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE 2113 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 1111 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 1111 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2111 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4111 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 4111 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3116 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2111 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3113 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3113 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE 1114 Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE 1114 Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00am-1:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00am-1:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30am-1:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00pm-3:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-1:00am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00am-11:30am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30am-1:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-1:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00am-11:30am;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-11:30am; 2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-11:30am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30am-1:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00am-1:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-12:00;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30am-1:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00am-1pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-1:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30am-10:00am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00am-10:00pm;2:00pm-5:00pm</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE 4XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECO 4201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Saifuddin Md. Tareeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Suraiya Pervin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Haider Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HHB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Hafiz Md. Hasan Babu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Rezaul Karim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Shabbir Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Hasanuzzaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Mustafizur Rahman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Chowdhury Farhan Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Mamun-or-Rashid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Upama Kabir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abu Ahmed Ferdaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Muhammad Asif Hossain Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Mosarrat Jahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Ismat Rahman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Sarker Tanveer Ahmed Rumee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasnain Heickal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Mosaddek Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Md. Samiullah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Mahmudur Rahman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Muhammad Ibrahim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Ashraful Islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Abu Bin Hasan Susan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. S M Mostaka Al Mamun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3112 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3111 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3111 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 2112 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 2112 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4113 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4113 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE 1113 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE 1113 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE 1113 Section 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE 2113 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 1111 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 1111 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4111 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 4111 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3116 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3113 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3113 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE 1114 Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE 1114 Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00am-1:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:30am-1:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:00pm-3:30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-1:00am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00am-11:30am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30am-1:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-1:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00am-11:30am;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-11:30am; 2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-11:30am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:00am-1:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-12:00;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:00am-1pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:30am-10:00am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:00am-10:00pm;2:00pm-5:00pm</t>
   </si>
   <si>
     <t xml:space="preserve">CSE 4121</t>
@@ -793,13 +799,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -820,6 +819,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -885,19 +891,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,11 +911,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,12 +923,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -956,11 +962,11 @@
   </sheetPr>
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="3" style="0" width="9.14"/>
@@ -1568,18 +1574,18 @@
         <v>56</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>56</v>
+      <c r="B56" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1587,113 +1593,77 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
@@ -1813,198 +1783,174 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="5"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="5"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="5"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="5"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="5"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="5"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="5"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="5"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="5"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="5"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="5"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="5"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="5"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="5"/>
-    </row>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2905,7 +2851,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -2916,324 +2862,324 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>69</v>
+      <c r="C25" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4249,11 +4195,11 @@
   </sheetPr>
   <dimension ref="A1:M1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
@@ -4269,343 +4215,343 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="D24" s="10" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5621,7 +5567,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -5632,411 +5578,411 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>159</v>
+      <c r="E2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="F20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="8" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6057,11 +6003,11 @@
   </sheetPr>
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CO36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="3" style="0" width="9.14"/>
@@ -6666,7 +6612,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>3</v>
@@ -6676,8 +6622,8 @@
       <c r="A56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>56</v>
+      <c r="B56" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>3</v>
@@ -6688,7 +6634,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>1.5</v>
@@ -6699,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>1.5</v>
@@ -6710,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>1.5</v>
@@ -6721,13 +6667,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>60</v>
+      <c r="E60" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6735,7 +6681,7 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>2</v>
@@ -6746,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>2</v>
@@ -6756,8 +6702,8 @@
       <c r="A63" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>56</v>
+      <c r="B63" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>3</v>
@@ -6767,8 +6713,8 @@
       <c r="A64" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>56</v>
+      <c r="B64" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>3</v>
@@ -6779,7 +6725,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1.5</v>
@@ -6790,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>4</v>
@@ -6799,7 +6745,7 @@
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3</v>
@@ -6808,7 +6754,7 @@
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3</v>
@@ -6817,7 +6763,7 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3</v>
@@ -6826,7 +6772,7 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3</v>
@@ -6835,7 +6781,7 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3</v>
@@ -6844,7 +6790,7 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3</v>
@@ -6853,7 +6799,7 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3</v>
@@ -6862,7 +6808,7 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3</v>
@@ -6871,7 +6817,7 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3</v>
@@ -6880,7 +6826,7 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3</v>
@@ -6889,7 +6835,7 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.5</v>
@@ -6898,7 +6844,7 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.5</v>
@@ -6907,7 +6853,7 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.5</v>
@@ -6916,7 +6862,7 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.5</v>
@@ -6925,7 +6871,7 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.5</v>
@@ -6934,7 +6880,7 @@
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.5</v>
@@ -6943,7 +6889,7 @@
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.5</v>
@@ -6952,7 +6898,7 @@
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.5</v>
@@ -6961,7 +6907,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.5</v>
@@ -6970,7 +6916,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.5</v>
@@ -6979,7 +6925,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3</v>
@@ -6988,7 +6934,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3</v>
@@ -6997,7 +6943,7 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>3</v>
@@ -7006,7 +6952,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>3</v>
@@ -7015,7 +6961,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>3</v>
@@ -7024,7 +6970,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>3</v>
@@ -7033,7 +6979,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>3</v>
@@ -7042,7 +6988,7 @@
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>3</v>
@@ -7051,7 +6997,7 @@
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>3</v>
@@ -7060,297 +7006,297 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="C96" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="C97" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C98" s="5" t="n">
+        <v>206</v>
+      </c>
+      <c r="C98" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="C99" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="C100" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="C101" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="C102" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="C103" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C104" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" s="5" t="n">
+        <v>213</v>
+      </c>
+      <c r="C105" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="C106" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="5" t="n">
+        <v>215</v>
+      </c>
+      <c r="C107" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="5" t="n">
+        <v>216</v>
+      </c>
+      <c r="C108" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="5" t="n">
+        <v>217</v>
+      </c>
+      <c r="C109" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="5" t="n">
+        <v>218</v>
+      </c>
+      <c r="C110" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="5" t="n">
+        <v>219</v>
+      </c>
+      <c r="C111" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C112" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="C112" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="5" t="n">
+        <v>221</v>
+      </c>
+      <c r="C113" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="5" t="n">
+        <v>222</v>
+      </c>
+      <c r="C114" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="C115" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C116" s="5" t="n">
+        <v>224</v>
+      </c>
+      <c r="C116" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="C117" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C118" s="5" t="n">
+        <v>226</v>
+      </c>
+      <c r="C118" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C119" s="5" t="n">
+        <v>227</v>
+      </c>
+      <c r="C119" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C120" s="5" t="n">
+        <v>228</v>
+      </c>
+      <c r="C120" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C121" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="C121" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="5" t="n">
+        <v>230</v>
+      </c>
+      <c r="C122" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="C123" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C124" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="C124" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C125" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C125" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C126" s="5" t="n">
+        <v>234</v>
+      </c>
+      <c r="C126" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C127" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="C127" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C128" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="C128" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8254,7 +8200,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
@@ -8268,172 +8214,172 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
+      <c r="A2" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
+      <c r="A3" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>235</v>
+      <c r="A4" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
+      <c r="A5" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>76</v>
+      <c r="A6" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>78</v>
+      <c r="A7" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
+      <c r="A8" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>236</v>
+      <c r="A9" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>84</v>
+      <c r="A10" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>86</v>
+      <c r="A11" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>88</v>
+      <c r="A12" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
+      <c r="A13" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>237</v>
+      <c r="A14" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>95</v>
+      <c r="A15" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
+      <c r="A16" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
+      <c r="A17" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>102</v>
+      <c r="A18" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>238</v>
+      <c r="A19" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>106</v>
+      <c r="A20" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>240</v>
+      <c r="A21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>161</v>
+      <c r="A23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9435,7 +9381,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="28.71"/>
@@ -9449,343 +9395,343 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F21" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F23" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>177</v>
+      <c r="F24" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>165</v>
+      <c r="A25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
